--- a/powerapp/data/hvcb_dp.xlsx
+++ b/powerapp/data/hvcb_dp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Job\1_Operation\Network\System_Defences\UFLS_UVLS\2025_Review\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BDA140-92E4-413D-901E-1D2182A7D7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A4AE20-36FB-0043-A9ED-82FE901B7DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9110" yWindow="-17530" windowWidth="14400" windowHeight="15180" xr2:uid="{85779A08-F2D4-4AB6-BDDB-4C6BF28C40BE}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="68800" windowHeight="26380" xr2:uid="{85779A08-F2D4-4AB6-BDDB-4C6BF28C40BE}"/>
   </bookViews>
   <sheets>
     <sheet name="ls_hvcb_dp" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="286">
   <si>
     <t>feeder_id</t>
   </si>
@@ -842,12 +842,6 @@
     <t>SHEL</t>
   </si>
   <si>
-    <t>smrk_hlnn_132</t>
-  </si>
-  <si>
-    <t>HLNN</t>
-  </si>
-  <si>
     <t>F3</t>
   </si>
   <si>
@@ -900,6 +894,9 @@
   </si>
   <si>
     <t>TPAU</t>
+  </si>
+  <si>
+    <t>smrk_hlnm_132</t>
   </si>
 </sst>
 </file>
@@ -909,7 +906,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,6 +931,12 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1326,22 +1329,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D5A47D-D33D-415C-BB2B-6C65B298EFEB}">
   <dimension ref="A1:F274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D273" sqref="D273"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D280" sqref="D280"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.9140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.9140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>226</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1">
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>226</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1">
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>228</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>230</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1">
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>230</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>232</v>
       </c>
@@ -1463,7 +1466,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1">
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>232</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>234</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1">
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>234</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1">
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>238</v>
       </c>
@@ -1531,7 +1534,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1">
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>238</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1">
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>240</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1">
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>240</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1">
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>242</v>
       </c>
@@ -1599,7 +1602,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1">
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>242</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>246</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>246</v>
       </c>
@@ -1650,7 +1653,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>248</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>250</v>
       </c>
@@ -1684,7 +1687,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>252</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1">
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>252</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>256</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1">
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>257</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>259</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>259</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
@@ -1846,7 +1849,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -1926,7 +1929,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>21</v>
       </c>
@@ -1966,7 +1969,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>21</v>
       </c>
@@ -1986,7 +1989,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>21</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>21</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>21</v>
       </c>
@@ -2106,7 +2109,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>21</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>27</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>27</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>27</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>27</v>
       </c>
@@ -2206,7 +2209,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>27</v>
       </c>
@@ -2226,7 +2229,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>27</v>
       </c>
@@ -2246,7 +2249,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>27</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>27</v>
       </c>
@@ -2286,12 +2289,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C52" s="3">
         <v>132</v>
@@ -2300,15 +2303,15 @@
         <v>8</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C53" s="3">
         <v>132</v>
@@ -2317,10 +2320,10 @@
         <v>10</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>30</v>
       </c>
@@ -2340,7 +2343,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>30</v>
       </c>
@@ -2360,7 +2363,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>30</v>
       </c>
@@ -2380,7 +2383,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>30</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>30</v>
       </c>
@@ -2420,7 +2423,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>30</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>30</v>
       </c>
@@ -2460,7 +2463,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>30</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>30</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>30</v>
       </c>
@@ -2520,7 +2523,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>30</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>30</v>
       </c>
@@ -2560,7 +2563,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>30</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>30</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>30</v>
       </c>
@@ -2620,7 +2623,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>30</v>
       </c>
@@ -2640,7 +2643,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>30</v>
       </c>
@@ -2660,7 +2663,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>39</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>39</v>
       </c>
@@ -2700,12 +2703,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C73" s="3">
         <v>132</v>
@@ -2715,12 +2718,12 @@
       </c>
       <c r="E73" s="10"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C74" s="3">
         <v>132</v>
@@ -2730,7 +2733,7 @@
       </c>
       <c r="E74" s="10"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>39</v>
       </c>
@@ -2750,7 +2753,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>39</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>39</v>
       </c>
@@ -2790,7 +2793,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>39</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>39</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>39</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>39</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.5" customHeight="1">
+    <row r="82" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>39</v>
       </c>
@@ -2890,7 +2893,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.5" customHeight="1">
+    <row r="83" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>39</v>
       </c>
@@ -2910,7 +2913,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="14.5" customHeight="1">
+    <row r="84" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>39</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="14.5" customHeight="1">
+    <row r="85" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>39</v>
       </c>
@@ -2950,7 +2953,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="14.5" customHeight="1">
+    <row r="86" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>39</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="14.5" customHeight="1">
+    <row r="87" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>39</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14.5" customHeight="1">
+    <row r="88" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>39</v>
       </c>
@@ -3010,7 +3013,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.5" customHeight="1">
+    <row r="89" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>39</v>
       </c>
@@ -3030,7 +3033,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="14.5" customHeight="1">
+    <row r="90" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>39</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="14.5" customHeight="1">
+    <row r="91" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>39</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="14.5" customHeight="1">
+    <row r="92" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>39</v>
       </c>
@@ -3090,7 +3093,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14.5" customHeight="1">
+    <row r="93" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>39</v>
       </c>
@@ -3110,7 +3113,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="14.5" customHeight="1">
+    <row r="94" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>39</v>
       </c>
@@ -3130,12 +3133,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="14.5" customHeight="1">
+    <row r="95" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C95" s="3">
         <v>132</v>
@@ -3146,12 +3149,12 @@
       <c r="E95" s="11"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" ht="14.5" customHeight="1">
+    <row r="96" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C96" s="3">
         <v>132</v>
@@ -3162,7 +3165,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" ht="14.5" customHeight="1">
+    <row r="97" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>39</v>
       </c>
@@ -3182,7 +3185,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14.5" customHeight="1">
+    <row r="98" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>39</v>
       </c>
@@ -3202,7 +3205,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="14.5" customHeight="1">
+    <row r="99" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>39</v>
       </c>
@@ -3222,7 +3225,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="14.5" customHeight="1">
+    <row r="100" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>39</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14.5" customHeight="1">
+    <row r="101" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>39</v>
       </c>
@@ -3262,7 +3265,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="14.5" customHeight="1">
+    <row r="102" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>39</v>
       </c>
@@ -3282,7 +3285,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="14.5" customHeight="1">
+    <row r="103" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>39</v>
       </c>
@@ -3302,7 +3305,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14.5" customHeight="1">
+    <row r="104" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>39</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>39</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>39</v>
       </c>
@@ -3362,7 +3365,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>39</v>
       </c>
@@ -3382,7 +3385,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>39</v>
       </c>
@@ -3402,7 +3405,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>39</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>39</v>
       </c>
@@ -3442,7 +3445,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>39</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>39</v>
       </c>
@@ -3482,55 +3485,55 @@
         <v>158</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C113" s="3">
         <v>132</v>
       </c>
       <c r="E113" s="10"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C114" s="3">
         <v>132</v>
       </c>
       <c r="E114" s="10"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C115" s="3">
         <v>132</v>
       </c>
       <c r="E115" s="10"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C116" s="3">
         <v>132</v>
       </c>
       <c r="E116" s="10"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>55</v>
       </c>
@@ -3550,7 +3553,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>55</v>
       </c>
@@ -3570,7 +3573,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>55</v>
       </c>
@@ -3590,7 +3593,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>55</v>
       </c>
@@ -3610,7 +3613,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>55</v>
       </c>
@@ -3630,7 +3633,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>55</v>
       </c>
@@ -3650,7 +3653,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>55</v>
       </c>
@@ -3670,7 +3673,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>55</v>
       </c>
@@ -3690,12 +3693,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C125" s="3">
         <v>132</v>
@@ -3704,10 +3707,10 @@
         <v>2</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>59</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>59</v>
       </c>
@@ -3747,7 +3750,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>59</v>
       </c>
@@ -3767,7 +3770,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>59</v>
       </c>
@@ -3787,7 +3790,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>59</v>
       </c>
@@ -3807,7 +3810,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="14.5" customHeight="1">
+    <row r="131" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>62</v>
       </c>
@@ -3827,7 +3830,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="14.5" customHeight="1">
+    <row r="132" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>62</v>
       </c>
@@ -3847,12 +3850,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="14.5" customHeight="1">
+    <row r="133" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C133" s="3">
         <v>132</v>
@@ -3862,12 +3865,12 @@
       </c>
       <c r="E133" s="10"/>
     </row>
-    <row r="134" spans="1:6" ht="14.5" customHeight="1">
+    <row r="134" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C134" s="3">
         <v>132</v>
@@ -3877,22 +3880,22 @@
       </c>
       <c r="E134" s="10"/>
     </row>
-    <row r="135" spans="1:6" ht="14.5" customHeight="1">
+    <row r="135" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C135" s="3">
         <v>132</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E135" s="10"/>
     </row>
-    <row r="136" spans="1:6" ht="14.5" customHeight="1">
+    <row r="136" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>62</v>
       </c>
@@ -3912,7 +3915,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="14.5" customHeight="1">
+    <row r="137" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>62</v>
       </c>
@@ -3932,7 +3935,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="14.5" customHeight="1">
+    <row r="138" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>62</v>
       </c>
@@ -3952,7 +3955,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="14.5" customHeight="1">
+    <row r="139" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>62</v>
       </c>
@@ -3972,7 +3975,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="14.5" customHeight="1">
+    <row r="140" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>62</v>
       </c>
@@ -3992,7 +3995,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="14.5" customHeight="1">
+    <row r="141" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>62</v>
       </c>
@@ -4012,7 +4015,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>62</v>
       </c>
@@ -4032,7 +4035,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>62</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>62</v>
       </c>
@@ -4072,7 +4075,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>62</v>
       </c>
@@ -4092,7 +4095,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>62</v>
       </c>
@@ -4112,7 +4115,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>62</v>
       </c>
@@ -4132,12 +4135,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C148" s="3">
         <v>132</v>
@@ -4146,15 +4149,15 @@
         <v>2</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C149" s="3">
         <v>132</v>
@@ -4163,10 +4166,10 @@
         <v>3</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>62</v>
       </c>
@@ -4186,7 +4189,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>62</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>62</v>
       </c>
@@ -4226,7 +4229,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>62</v>
       </c>
@@ -4246,7 +4249,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>62</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>62</v>
       </c>
@@ -4286,7 +4289,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>62</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>62</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="6" customFormat="1">
+    <row r="158" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>72</v>
       </c>
@@ -4346,7 +4349,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="6" customFormat="1">
+    <row r="159" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>72</v>
       </c>
@@ -4366,7 +4369,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="6" customFormat="1">
+    <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>72</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="6" customFormat="1">
+    <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>72</v>
       </c>
@@ -4406,7 +4409,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="6" customFormat="1">
+    <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>72</v>
       </c>
@@ -4426,7 +4429,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="6" customFormat="1">
+    <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>72</v>
       </c>
@@ -4446,7 +4449,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="6" customFormat="1">
+    <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>72</v>
       </c>
@@ -4466,7 +4469,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="165" spans="1:6" s="6" customFormat="1">
+    <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>72</v>
       </c>
@@ -4486,7 +4489,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="6" customFormat="1">
+    <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>72</v>
       </c>
@@ -4506,7 +4509,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="167" spans="1:6" s="6" customFormat="1">
+    <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>72</v>
       </c>
@@ -4526,7 +4529,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="168" spans="1:6" s="6" customFormat="1">
+    <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>72</v>
       </c>
@@ -4546,7 +4549,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="169" spans="1:6" s="6" customFormat="1">
+    <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>72</v>
       </c>
@@ -4566,7 +4569,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="170" spans="1:6" s="6" customFormat="1">
+    <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>72</v>
       </c>
@@ -4586,7 +4589,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="171" spans="1:6" s="6" customFormat="1">
+    <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>72</v>
       </c>
@@ -4606,7 +4609,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="6" customFormat="1">
+    <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>72</v>
       </c>
@@ -4626,7 +4629,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>77</v>
       </c>
@@ -4646,7 +4649,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>77</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>77</v>
       </c>
@@ -4686,7 +4689,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>77</v>
       </c>
@@ -4706,7 +4709,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>77</v>
       </c>
@@ -4726,7 +4729,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>77</v>
       </c>
@@ -4746,12 +4749,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C179" s="3">
         <v>132</v>
@@ -4761,12 +4764,12 @@
       </c>
       <c r="E179" s="10"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C180" s="3">
         <v>132</v>
@@ -4776,7 +4779,7 @@
       </c>
       <c r="E180" s="10"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>77</v>
       </c>
@@ -4796,7 +4799,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>77</v>
       </c>
@@ -4816,7 +4819,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>77</v>
       </c>
@@ -4836,7 +4839,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>77</v>
       </c>
@@ -4856,7 +4859,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>77</v>
       </c>
@@ -4876,7 +4879,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>77</v>
       </c>
@@ -4896,12 +4899,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C187" s="3">
         <v>132</v>
@@ -4911,12 +4914,12 @@
       </c>
       <c r="E187" s="10"/>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C188" s="3">
         <v>132</v>
@@ -4926,7 +4929,7 @@
       </c>
       <c r="E188" s="10"/>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>82</v>
       </c>
@@ -4946,7 +4949,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>82</v>
       </c>
@@ -4966,7 +4969,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>82</v>
       </c>
@@ -4986,7 +4989,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>82</v>
       </c>
@@ -5006,7 +5009,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>85</v>
       </c>
@@ -5026,7 +5029,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>85</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>85</v>
       </c>
@@ -5066,7 +5069,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>85</v>
       </c>
@@ -5086,7 +5089,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>85</v>
       </c>
@@ -5106,7 +5109,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>85</v>
       </c>
@@ -5126,12 +5129,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C199" s="3">
         <v>132</v>
@@ -5141,12 +5144,12 @@
       </c>
       <c r="E199" s="10"/>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C200" s="3">
         <v>132</v>
@@ -5156,19 +5159,19 @@
       </c>
       <c r="E200" s="10"/>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C201" s="3">
         <v>132</v>
       </c>
       <c r="E201" s="10"/>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>88</v>
       </c>
@@ -5188,7 +5191,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>88</v>
       </c>
@@ -5208,7 +5211,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>88</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>88</v>
       </c>
@@ -5248,7 +5251,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>88</v>
       </c>
@@ -5268,7 +5271,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>88</v>
       </c>
@@ -5288,7 +5291,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>88</v>
       </c>
@@ -5308,7 +5311,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>88</v>
       </c>
@@ -5328,7 +5331,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>93</v>
       </c>
@@ -5348,7 +5351,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>93</v>
       </c>
@@ -5368,7 +5371,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>93</v>
       </c>
@@ -5388,7 +5391,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>93</v>
       </c>
@@ -5408,7 +5411,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>93</v>
       </c>
@@ -5428,7 +5431,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>93</v>
       </c>
@@ -5448,7 +5451,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>93</v>
       </c>
@@ -5468,7 +5471,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>93</v>
       </c>
@@ -5488,7 +5491,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>93</v>
       </c>
@@ -5508,7 +5511,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>93</v>
       </c>
@@ -5528,7 +5531,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>93</v>
       </c>
@@ -5548,7 +5551,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>93</v>
       </c>
@@ -5568,7 +5571,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>93</v>
       </c>
@@ -5588,7 +5591,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>93</v>
       </c>
@@ -5608,7 +5611,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>93</v>
       </c>
@@ -5628,7 +5631,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
         <v>93</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>93</v>
       </c>
@@ -5668,7 +5671,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
         <v>93</v>
       </c>
@@ -5688,7 +5691,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
         <v>93</v>
       </c>
@@ -5708,7 +5711,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>93</v>
       </c>
@@ -5728,7 +5731,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>93</v>
       </c>
@@ -5748,7 +5751,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
         <v>93</v>
       </c>
@@ -5768,7 +5771,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="232" spans="1:6" s="6" customFormat="1">
+    <row r="232" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
         <v>101</v>
       </c>
@@ -5788,7 +5791,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="233" spans="1:6" s="6" customFormat="1">
+    <row r="233" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
         <v>101</v>
       </c>
@@ -5808,7 +5811,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="234" spans="1:6" s="6" customFormat="1">
+    <row r="234" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
         <v>101</v>
       </c>
@@ -5828,7 +5831,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="235" spans="1:6" s="6" customFormat="1">
+    <row r="235" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
         <v>101</v>
       </c>
@@ -5848,7 +5851,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="236" spans="1:6" s="6" customFormat="1">
+    <row r="236" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>101</v>
       </c>
@@ -5868,7 +5871,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="6" customFormat="1">
+    <row r="237" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
         <v>101</v>
       </c>
@@ -5888,7 +5891,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="238" spans="1:6" s="6" customFormat="1">
+    <row r="238" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>101</v>
       </c>
@@ -5908,7 +5911,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="239" spans="1:6" s="6" customFormat="1">
+    <row r="239" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>101</v>
       </c>
@@ -5928,7 +5931,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="240" spans="1:6" s="6" customFormat="1">
+    <row r="240" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
         <v>101</v>
       </c>
@@ -5948,7 +5951,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="6" customFormat="1">
+    <row r="241" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>101</v>
       </c>
@@ -5968,7 +5971,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
         <v>106</v>
       </c>
@@ -5988,7 +5991,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
         <v>106</v>
       </c>
@@ -6008,7 +6011,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>106</v>
       </c>
@@ -6028,7 +6031,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
         <v>106</v>
       </c>
@@ -6048,7 +6051,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>106</v>
       </c>
@@ -6068,7 +6071,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
         <v>106</v>
       </c>
@@ -6088,7 +6091,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
         <v>106</v>
       </c>
@@ -6108,7 +6111,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
         <v>106</v>
       </c>
@@ -6128,7 +6131,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
         <v>106</v>
       </c>
@@ -6148,7 +6151,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
         <v>106</v>
       </c>
@@ -6168,7 +6171,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
         <v>106</v>
       </c>
@@ -6188,7 +6191,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
         <v>106</v>
       </c>
@@ -6208,7 +6211,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>106</v>
       </c>
@@ -6228,7 +6231,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="14.5" customHeight="1">
+    <row r="255" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>111</v>
       </c>
@@ -6248,7 +6251,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="14.5" customHeight="1">
+    <row r="256" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
         <v>111</v>
       </c>
@@ -6268,7 +6271,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="14.5" customHeight="1">
+    <row r="257" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
         <v>111</v>
       </c>
@@ -6288,7 +6291,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="14.5" customHeight="1">
+    <row r="258" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
         <v>111</v>
       </c>
@@ -6308,7 +6311,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="14.5" customHeight="1">
+    <row r="259" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
         <v>111</v>
       </c>
@@ -6328,7 +6331,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="14.5" customHeight="1">
+    <row r="260" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
         <v>111</v>
       </c>
@@ -6348,7 +6351,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="14.5" customHeight="1">
+    <row r="261" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
         <v>111</v>
       </c>
@@ -6368,7 +6371,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="14.5" customHeight="1">
+    <row r="262" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
         <v>111</v>
       </c>
@@ -6388,7 +6391,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="14.5" customHeight="1">
+    <row r="263" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
         <v>111</v>
       </c>
@@ -6408,7 +6411,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="14.5" customHeight="1">
+    <row r="264" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
         <v>111</v>
       </c>
@@ -6428,7 +6431,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="14.5" customHeight="1">
+    <row r="265" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
         <v>111</v>
       </c>
@@ -6448,7 +6451,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="14.5" customHeight="1">
+    <row r="266" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
         <v>111</v>
       </c>
@@ -6468,7 +6471,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="267" spans="1:6" s="3" customFormat="1">
+    <row r="267" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>261</v>
       </c>
@@ -6485,7 +6488,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="268" spans="1:6" s="3" customFormat="1">
+    <row r="268" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>261</v>
       </c>
@@ -6502,7 +6505,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="269" spans="1:6" s="3" customFormat="1">
+    <row r="269" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>265</v>
       </c>
@@ -6517,7 +6520,7 @@
       </c>
       <c r="E269" s="8"/>
     </row>
-    <row r="270" spans="1:6" s="3" customFormat="1">
+    <row r="270" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>265</v>
       </c>
@@ -6532,12 +6535,12 @@
       </c>
       <c r="E270" s="8"/>
     </row>
-    <row r="271" spans="1:6" s="3" customFormat="1">
+    <row r="271" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="C271" s="7">
         <v>132</v>
@@ -6549,12 +6552,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="272" spans="1:6" s="3" customFormat="1">
+    <row r="272" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="C272" s="7">
         <v>132</v>
@@ -6566,35 +6569,35 @@
         <v>210</v>
       </c>
     </row>
-    <row r="273" spans="1:5" s="3" customFormat="1">
+    <row r="273" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="C273" s="7">
         <v>132</v>
       </c>
       <c r="D273" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E273" s="9">
         <v>310</v>
       </c>
     </row>
-    <row r="274" spans="1:5" s="3" customFormat="1">
+    <row r="274" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="C274" s="7">
         <v>132</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E274" s="9">
         <v>410</v>
@@ -6603,6 +6606,7 @@
   </sheetData>
   <sheetProtection autoFilter="0"/>
   <autoFilter ref="A1:F274" xr:uid="{61D5A47D-D33D-415C-BB2B-6C65B298EFEB}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
